--- a/source/fr_dc_age_sex/xlsx/2014_dc_age_sex_e.xlsx
+++ b/source/fr_dc_age_sex/xlsx/2014_dc_age_sex_e.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <r>
       <rPr>
@@ -580,14 +580,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Grand  Total</t>
-    </r>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -885,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -923,9 +916,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1489,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1522,52 +1512,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89" t="s">
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="92" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="93"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="95" t="s">
+      <c r="M1" s="92"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="89" t="s">
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="98" t="s">
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="97" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1637,85 +1627,85 @@
       <c r="Y2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="99"/>
+      <c r="Z2" s="98"/>
     </row>
     <row r="3" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>1131</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>486</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>3692</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>1551</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <v>6860</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>1408</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <v>2380</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <v>2136</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="21">
         <v>5924</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <v>3592</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="17">
         <v>5062</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="18">
         <v>8654</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="22">
         <v>2188</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3" s="19">
         <v>4050</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="16">
         <v>5632</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3" s="19">
         <v>4006</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="17">
         <v>1121</v>
       </c>
-      <c r="T3" s="19">
+      <c r="T3" s="18">
         <v>16997</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="14">
         <v>3218</v>
       </c>
-      <c r="V3" s="20">
+      <c r="V3" s="19">
         <v>2814</v>
       </c>
-      <c r="W3" s="20">
+      <c r="W3" s="19">
         <v>3816</v>
       </c>
-      <c r="X3" s="21">
+      <c r="X3" s="20">
         <v>5866</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="Y3" s="18">
         <v>15714</v>
       </c>
-      <c r="Z3" s="24">
+      <c r="Z3" s="23">
         <v>54149</v>
       </c>
     </row>
@@ -1723,157 +1713,157 @@
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>974</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>477</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <v>3529</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="28">
         <v>1607</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="29">
         <v>6587</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="30">
         <v>1291</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="31">
         <v>2266</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="32">
         <v>2144</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="33">
         <v>5701</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="30">
         <v>3551</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="28">
         <v>4766</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="29">
         <v>8317</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="34">
         <v>2067</v>
       </c>
-      <c r="P4" s="32">
+      <c r="P4" s="31">
         <v>3872</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="27">
         <v>5576</v>
       </c>
-      <c r="R4" s="32">
+      <c r="R4" s="31">
         <v>3913</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="28">
         <v>1060</v>
       </c>
-      <c r="T4" s="30">
+      <c r="T4" s="29">
         <v>16488</v>
       </c>
-      <c r="U4" s="31">
+      <c r="U4" s="30">
         <v>3157</v>
       </c>
-      <c r="V4" s="32">
+      <c r="V4" s="31">
         <v>2686</v>
       </c>
-      <c r="W4" s="32">
+      <c r="W4" s="31">
         <v>3556</v>
       </c>
-      <c r="X4" s="33">
+      <c r="X4" s="32">
         <v>5679</v>
       </c>
-      <c r="Y4" s="30">
+      <c r="Y4" s="29">
         <v>15078</v>
       </c>
-      <c r="Z4" s="36">
+      <c r="Z4" s="35">
         <v>52171</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="37">
+      <c r="B5" s="80"/>
+      <c r="C5" s="36">
         <v>2105</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>963</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="38">
         <v>7221</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <v>3158</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="39">
         <v>13447</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="39">
         <v>2699</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="39">
         <v>4646</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="38">
         <v>4280</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="40">
         <v>11625</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="39">
         <v>7143</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="39">
         <v>9828</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="39">
         <v>16971</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="38">
         <v>4255</v>
       </c>
-      <c r="P5" s="40">
+      <c r="P5" s="39">
         <v>7922</v>
       </c>
-      <c r="Q5" s="41">
+      <c r="Q5" s="40">
         <v>11208</v>
       </c>
-      <c r="R5" s="40">
+      <c r="R5" s="39">
         <v>7919</v>
       </c>
-      <c r="S5" s="40">
+      <c r="S5" s="39">
         <v>2181</v>
       </c>
-      <c r="T5" s="40">
+      <c r="T5" s="39">
         <v>33485</v>
       </c>
-      <c r="U5" s="40">
+      <c r="U5" s="39">
         <v>6375</v>
       </c>
-      <c r="V5" s="40">
+      <c r="V5" s="39">
         <v>5500</v>
       </c>
-      <c r="W5" s="40">
+      <c r="W5" s="39">
         <v>7372</v>
       </c>
-      <c r="X5" s="39">
+      <c r="X5" s="38">
         <v>11545</v>
       </c>
-      <c r="Y5" s="42">
+      <c r="Y5" s="41">
         <v>30792</v>
       </c>
-      <c r="Z5" s="43">
+      <c r="Z5" s="42">
         <v>106320</v>
       </c>
     </row>
@@ -1881,79 +1871,79 @@
       <c r="A6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>2776</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>1221</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>8992</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>4086</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>17075</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>3279</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>5562</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="20">
         <v>5087</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="43">
         <v>13928</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>8770</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="17">
         <v>12086</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="18">
         <v>20856</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="22">
         <v>4793</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="19">
         <v>10978</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="16">
         <v>13969</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="19">
         <v>9806</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="17">
         <v>2502</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="18">
         <v>42048</v>
       </c>
-      <c r="U6" s="15">
+      <c r="U6" s="14">
         <v>8151</v>
       </c>
-      <c r="V6" s="20">
+      <c r="V6" s="19">
         <v>7782</v>
       </c>
-      <c r="W6" s="20">
+      <c r="W6" s="19">
         <v>8930</v>
       </c>
-      <c r="X6" s="21">
+      <c r="X6" s="20">
         <v>13569</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Y6" s="18">
         <v>38432</v>
       </c>
-      <c r="Z6" s="24">
+      <c r="Z6" s="23">
         <v>132339</v>
       </c>
     </row>
@@ -1961,157 +1951,157 @@
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="30">
         <v>2648</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>1220</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>8770</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <v>4105</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <v>16743</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="30">
         <v>3121</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="31">
         <v>5398</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="32">
         <v>4776</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="44">
         <v>13295</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="30">
         <v>8399</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="28">
         <v>11450</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="29">
         <v>19849</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7" s="34">
         <v>4448</v>
       </c>
-      <c r="P7" s="32">
+      <c r="P7" s="31">
         <v>9826</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="27">
         <v>12959</v>
       </c>
-      <c r="R7" s="32">
+      <c r="R7" s="31">
         <v>9374</v>
       </c>
-      <c r="S7" s="29">
+      <c r="S7" s="28">
         <v>2334</v>
       </c>
-      <c r="T7" s="30">
+      <c r="T7" s="29">
         <v>38941</v>
       </c>
-      <c r="U7" s="31">
+      <c r="U7" s="30">
         <v>7620</v>
       </c>
-      <c r="V7" s="32">
+      <c r="V7" s="31">
         <v>7236</v>
       </c>
-      <c r="W7" s="32">
+      <c r="W7" s="31">
         <v>8515</v>
       </c>
-      <c r="X7" s="33">
+      <c r="X7" s="32">
         <v>12757</v>
       </c>
-      <c r="Y7" s="30">
+      <c r="Y7" s="29">
         <v>36128</v>
       </c>
-      <c r="Z7" s="36">
+      <c r="Z7" s="35">
         <v>124956</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="37">
+      <c r="B8" s="80"/>
+      <c r="C8" s="36">
         <v>5424</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="39">
         <v>2441</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="40">
         <v>17762</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="39">
         <v>8191</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="39">
         <v>33818</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="39">
         <v>6400</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="39">
         <v>10960</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="38">
         <v>9863</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="40">
         <v>27223</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="39">
         <v>17169</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="39">
         <v>23536</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N8" s="39">
         <v>40705</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="38">
         <v>9241</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="39">
         <v>20804</v>
       </c>
-      <c r="Q8" s="41">
+      <c r="Q8" s="40">
         <v>26928</v>
       </c>
-      <c r="R8" s="40">
+      <c r="R8" s="39">
         <v>19180</v>
       </c>
-      <c r="S8" s="40">
+      <c r="S8" s="39">
         <v>4836</v>
       </c>
-      <c r="T8" s="40">
+      <c r="T8" s="39">
         <v>80989</v>
       </c>
-      <c r="U8" s="40">
+      <c r="U8" s="39">
         <v>15771</v>
       </c>
-      <c r="V8" s="40">
+      <c r="V8" s="39">
         <v>15018</v>
       </c>
-      <c r="W8" s="40">
+      <c r="W8" s="39">
         <v>17445</v>
       </c>
-      <c r="X8" s="39">
+      <c r="X8" s="38">
         <v>26326</v>
       </c>
-      <c r="Y8" s="42">
+      <c r="Y8" s="41">
         <v>74560</v>
       </c>
-      <c r="Z8" s="43">
+      <c r="Z8" s="42">
         <v>257295</v>
       </c>
     </row>
@@ -2119,79 +2109,79 @@
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>2638</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>1191</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>8127</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>3923</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>15879</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>3067</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>5055</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <v>4376</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="43">
         <v>12498</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <v>6772</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <v>9574</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="18">
         <v>16346</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="22">
         <v>3809</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="19">
         <v>9090</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="16">
         <v>10324</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="19">
         <v>8624</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="17">
         <v>1799</v>
       </c>
-      <c r="T9" s="19">
+      <c r="T9" s="18">
         <v>33646</v>
       </c>
-      <c r="U9" s="15">
+      <c r="U9" s="14">
         <v>6244</v>
       </c>
-      <c r="V9" s="20">
+      <c r="V9" s="19">
         <v>6435</v>
       </c>
-      <c r="W9" s="20">
+      <c r="W9" s="19">
         <v>7203</v>
       </c>
-      <c r="X9" s="21">
+      <c r="X9" s="20">
         <v>11339</v>
       </c>
-      <c r="Y9" s="19">
+      <c r="Y9" s="18">
         <v>31221</v>
       </c>
-      <c r="Z9" s="24">
+      <c r="Z9" s="23">
         <v>109590</v>
       </c>
     </row>
@@ -2199,157 +2189,157 @@
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="30">
         <v>2747</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>1196</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>8236</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <v>3948</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="29">
         <v>16127</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="30">
         <v>3016</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <v>4770</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="32">
         <v>4385</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="44">
         <v>12171</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="30">
         <v>6487</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="28">
         <v>8994</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="29">
         <v>15481</v>
       </c>
-      <c r="O10" s="35">
+      <c r="O10" s="34">
         <v>3707</v>
       </c>
-      <c r="P10" s="32">
+      <c r="P10" s="31">
         <v>8770</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="27">
         <v>9703</v>
       </c>
-      <c r="R10" s="32">
+      <c r="R10" s="31">
         <v>8479</v>
       </c>
-      <c r="S10" s="29">
+      <c r="S10" s="28">
         <v>1706</v>
       </c>
-      <c r="T10" s="30">
+      <c r="T10" s="29">
         <v>32365</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="30">
         <v>6063</v>
       </c>
-      <c r="V10" s="32">
+      <c r="V10" s="31">
         <v>6260</v>
       </c>
-      <c r="W10" s="32">
+      <c r="W10" s="31">
         <v>7100</v>
       </c>
-      <c r="X10" s="33">
+      <c r="X10" s="32">
         <v>11351</v>
       </c>
-      <c r="Y10" s="30">
+      <c r="Y10" s="29">
         <v>30774</v>
       </c>
-      <c r="Z10" s="36">
+      <c r="Z10" s="35">
         <v>106918</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="37">
+      <c r="B11" s="80"/>
+      <c r="C11" s="36">
         <v>5385</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="39">
         <v>2387</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="40">
         <v>16363</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="39">
         <v>7871</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="39">
         <v>32006</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="39">
         <v>6083</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="39">
         <v>9825</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="38">
         <v>8761</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="40">
         <v>24669</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="39">
         <v>13259</v>
       </c>
-      <c r="M11" s="40">
+      <c r="M11" s="39">
         <v>18568</v>
       </c>
-      <c r="N11" s="40">
+      <c r="N11" s="39">
         <v>31827</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="38">
         <v>7516</v>
       </c>
-      <c r="P11" s="40">
+      <c r="P11" s="39">
         <v>17860</v>
       </c>
-      <c r="Q11" s="41">
+      <c r="Q11" s="40">
         <v>20027</v>
       </c>
-      <c r="R11" s="40">
+      <c r="R11" s="39">
         <v>17103</v>
       </c>
-      <c r="S11" s="40">
+      <c r="S11" s="39">
         <v>3505</v>
       </c>
-      <c r="T11" s="40">
+      <c r="T11" s="39">
         <v>66011</v>
       </c>
-      <c r="U11" s="40">
+      <c r="U11" s="39">
         <v>12307</v>
       </c>
-      <c r="V11" s="40">
+      <c r="V11" s="39">
         <v>12695</v>
       </c>
-      <c r="W11" s="40">
+      <c r="W11" s="39">
         <v>14303</v>
       </c>
-      <c r="X11" s="39">
+      <c r="X11" s="38">
         <v>22690</v>
       </c>
-      <c r="Y11" s="42">
+      <c r="Y11" s="41">
         <v>61995</v>
       </c>
-      <c r="Z11" s="43">
+      <c r="Z11" s="42">
         <v>216508</v>
       </c>
     </row>
@@ -2357,79 +2347,79 @@
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>3225</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>1558</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>9867</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>4624</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <v>19274</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <v>4079</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <v>5508</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="20">
         <v>5237</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="43">
         <v>14824</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="14">
         <v>7350</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="17">
         <v>11021</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="18">
         <v>18371</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="22">
         <v>4928</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="19">
         <v>11420</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="16">
         <v>10774</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="19">
         <v>9313</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="17">
         <v>1957</v>
       </c>
-      <c r="T12" s="19">
+      <c r="T12" s="18">
         <v>38392</v>
       </c>
-      <c r="U12" s="15">
+      <c r="U12" s="14">
         <v>6480</v>
       </c>
-      <c r="V12" s="20">
+      <c r="V12" s="19">
         <v>6791</v>
       </c>
-      <c r="W12" s="20">
+      <c r="W12" s="19">
         <v>7517</v>
       </c>
-      <c r="X12" s="21">
+      <c r="X12" s="20">
         <v>14418</v>
       </c>
-      <c r="Y12" s="19">
+      <c r="Y12" s="18">
         <v>35206</v>
       </c>
-      <c r="Z12" s="24">
+      <c r="Z12" s="23">
         <v>126067</v>
       </c>
     </row>
@@ -2437,157 +2427,157 @@
       <c r="A13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <v>3389</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <v>1682</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <v>9850</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="28">
         <v>4543</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="29">
         <v>19464</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="30">
         <v>3916</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="31">
         <v>5406</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="32">
         <v>5344</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="44">
         <v>14666</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="30">
         <v>6993</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="28">
         <v>10193</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="29">
         <v>17186</v>
       </c>
-      <c r="O13" s="35">
+      <c r="O13" s="34">
         <v>5073</v>
       </c>
-      <c r="P13" s="32">
+      <c r="P13" s="31">
         <v>10513</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="27">
         <v>10045</v>
       </c>
-      <c r="R13" s="32">
+      <c r="R13" s="31">
         <v>8974</v>
       </c>
-      <c r="S13" s="29">
+      <c r="S13" s="28">
         <v>1931</v>
       </c>
-      <c r="T13" s="30">
+      <c r="T13" s="29">
         <v>36536</v>
       </c>
-      <c r="U13" s="31">
+      <c r="U13" s="30">
         <v>6002</v>
       </c>
-      <c r="V13" s="32">
+      <c r="V13" s="31">
         <v>6562</v>
       </c>
-      <c r="W13" s="32">
+      <c r="W13" s="31">
         <v>7606</v>
       </c>
-      <c r="X13" s="33">
+      <c r="X13" s="32">
         <v>14029</v>
       </c>
-      <c r="Y13" s="30">
+      <c r="Y13" s="29">
         <v>34199</v>
       </c>
-      <c r="Z13" s="36">
+      <c r="Z13" s="35">
         <v>122051</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="37">
+      <c r="B14" s="80"/>
+      <c r="C14" s="36">
         <v>6614</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="39">
         <v>3240</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="40">
         <v>19717</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="39">
         <v>9167</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="39">
         <v>38738</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="39">
         <v>7995</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="39">
         <v>10914</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="38">
         <v>10581</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="40">
         <v>29490</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="39">
         <v>14343</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="39">
         <v>21214</v>
       </c>
-      <c r="N14" s="40">
+      <c r="N14" s="39">
         <v>35557</v>
       </c>
-      <c r="O14" s="39">
+      <c r="O14" s="38">
         <v>10001</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="39">
         <v>21933</v>
       </c>
-      <c r="Q14" s="41">
+      <c r="Q14" s="40">
         <v>20819</v>
       </c>
-      <c r="R14" s="40">
+      <c r="R14" s="39">
         <v>18287</v>
       </c>
-      <c r="S14" s="40">
+      <c r="S14" s="39">
         <v>3888</v>
       </c>
-      <c r="T14" s="40">
+      <c r="T14" s="39">
         <v>74928</v>
       </c>
-      <c r="U14" s="40">
+      <c r="U14" s="39">
         <v>12482</v>
       </c>
-      <c r="V14" s="40">
+      <c r="V14" s="39">
         <v>13353</v>
       </c>
-      <c r="W14" s="40">
+      <c r="W14" s="39">
         <v>15123</v>
       </c>
-      <c r="X14" s="39">
+      <c r="X14" s="38">
         <v>28447</v>
       </c>
-      <c r="Y14" s="42">
+      <c r="Y14" s="41">
         <v>69405</v>
       </c>
-      <c r="Z14" s="43">
+      <c r="Z14" s="42">
         <v>248118</v>
       </c>
     </row>
@@ -2595,79 +2585,79 @@
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>3907</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>2031</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>11239</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <v>4788</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <v>21965</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <v>5133</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <v>5791</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="20">
         <v>6501</v>
       </c>
-      <c r="K15" s="44">
+      <c r="K15" s="43">
         <v>17425</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="14">
         <v>7440</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="17">
         <v>11471</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="18">
         <v>18911</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="22">
         <v>6036</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="19">
         <v>10439</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="16">
         <v>10672</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="19">
         <v>10189</v>
       </c>
-      <c r="S15" s="18">
+      <c r="S15" s="17">
         <v>2204</v>
       </c>
-      <c r="T15" s="19">
+      <c r="T15" s="18">
         <v>39540</v>
       </c>
-      <c r="U15" s="15">
+      <c r="U15" s="14">
         <v>4729</v>
       </c>
-      <c r="V15" s="20">
+      <c r="V15" s="19">
         <v>5108</v>
       </c>
-      <c r="W15" s="20">
+      <c r="W15" s="19">
         <v>8874</v>
       </c>
-      <c r="X15" s="21">
+      <c r="X15" s="20">
         <v>13933</v>
       </c>
-      <c r="Y15" s="19">
+      <c r="Y15" s="18">
         <v>32644</v>
       </c>
-      <c r="Z15" s="24">
+      <c r="Z15" s="23">
         <v>130485</v>
       </c>
     </row>
@@ -2675,157 +2665,157 @@
       <c r="A16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="30">
         <v>4198</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <v>2221</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <v>11481</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="28">
         <v>4793</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="29">
         <v>22693</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="30">
         <v>5052</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="31">
         <v>5924</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="32">
         <v>6645</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="44">
         <v>17621</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="30">
         <v>7258</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="28">
         <v>11119</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="29">
         <v>18377</v>
       </c>
-      <c r="O16" s="35">
+      <c r="O16" s="34">
         <v>6336</v>
       </c>
-      <c r="P16" s="32">
+      <c r="P16" s="31">
         <v>9462</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="27">
         <v>10608</v>
       </c>
-      <c r="R16" s="32">
+      <c r="R16" s="31">
         <v>9464</v>
       </c>
-      <c r="S16" s="29">
+      <c r="S16" s="28">
         <v>2446</v>
       </c>
-      <c r="T16" s="30">
+      <c r="T16" s="29">
         <v>38316</v>
       </c>
-      <c r="U16" s="31">
+      <c r="U16" s="30">
         <v>4775</v>
       </c>
-      <c r="V16" s="32">
+      <c r="V16" s="31">
         <v>4818</v>
       </c>
-      <c r="W16" s="32">
+      <c r="W16" s="31">
         <v>9636</v>
       </c>
-      <c r="X16" s="33">
+      <c r="X16" s="32">
         <v>13311</v>
       </c>
-      <c r="Y16" s="30">
+      <c r="Y16" s="29">
         <v>32540</v>
       </c>
-      <c r="Z16" s="36">
+      <c r="Z16" s="35">
         <v>129547</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="37">
+      <c r="B17" s="80"/>
+      <c r="C17" s="36">
         <v>8105</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="39">
         <v>4252</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="40">
         <v>22720</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="39">
         <v>9581</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="39">
         <v>44658</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="39">
         <v>10185</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="39">
         <v>11715</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="38">
         <v>13146</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="40">
         <v>35046</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="39">
         <v>14698</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="39">
         <v>22590</v>
       </c>
-      <c r="N17" s="40">
+      <c r="N17" s="39">
         <v>37288</v>
       </c>
-      <c r="O17" s="39">
+      <c r="O17" s="38">
         <v>12372</v>
       </c>
-      <c r="P17" s="40">
+      <c r="P17" s="39">
         <v>19901</v>
       </c>
-      <c r="Q17" s="41">
+      <c r="Q17" s="40">
         <v>21280</v>
       </c>
-      <c r="R17" s="40">
+      <c r="R17" s="39">
         <v>19653</v>
       </c>
-      <c r="S17" s="40">
+      <c r="S17" s="39">
         <v>4650</v>
       </c>
-      <c r="T17" s="40">
+      <c r="T17" s="39">
         <v>77856</v>
       </c>
-      <c r="U17" s="40">
+      <c r="U17" s="39">
         <v>9504</v>
       </c>
-      <c r="V17" s="40">
+      <c r="V17" s="39">
         <v>9926</v>
       </c>
-      <c r="W17" s="40">
+      <c r="W17" s="39">
         <v>18510</v>
       </c>
-      <c r="X17" s="39">
+      <c r="X17" s="38">
         <v>27244</v>
       </c>
-      <c r="Y17" s="42">
+      <c r="Y17" s="41">
         <v>65184</v>
       </c>
-      <c r="Z17" s="43">
+      <c r="Z17" s="42">
         <v>260032</v>
       </c>
     </row>
@@ -2833,79 +2823,79 @@
       <c r="A18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>4068</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>2328</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>11823</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <v>5169</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="18">
         <v>23388</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="14">
         <v>5454</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <v>6004</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="20">
         <v>7361</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="43">
         <v>18819</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="14">
         <v>8101</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="17">
         <v>12284</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="18">
         <v>20385</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="22">
         <v>6374</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18" s="19">
         <v>7867</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="16">
         <v>10867</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="19">
         <v>10910</v>
       </c>
-      <c r="S18" s="18">
+      <c r="S18" s="17">
         <v>2586</v>
       </c>
-      <c r="T18" s="19">
+      <c r="T18" s="18">
         <v>38604</v>
       </c>
-      <c r="U18" s="15">
+      <c r="U18" s="14">
         <v>5037</v>
       </c>
-      <c r="V18" s="20">
+      <c r="V18" s="19">
         <v>4524</v>
       </c>
-      <c r="W18" s="20">
+      <c r="W18" s="19">
         <v>10275</v>
       </c>
-      <c r="X18" s="21">
+      <c r="X18" s="20">
         <v>11675</v>
       </c>
-      <c r="Y18" s="19">
+      <c r="Y18" s="18">
         <v>31511</v>
       </c>
-      <c r="Z18" s="24">
+      <c r="Z18" s="23">
         <v>132707</v>
       </c>
     </row>
@@ -2913,157 +2903,157 @@
       <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="30">
         <v>4794</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="31">
         <v>2577</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <v>13334</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="28">
         <v>5794</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <v>26499</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="30">
         <v>5431</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="31">
         <v>6660</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="32">
         <v>7677</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="44">
         <v>19768</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="30">
         <v>9088</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="28">
         <v>13149</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="29">
         <v>22237</v>
       </c>
-      <c r="O19" s="35">
+      <c r="O19" s="34">
         <v>6838</v>
       </c>
-      <c r="P19" s="32">
+      <c r="P19" s="31">
         <v>9017</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="Q19" s="27">
         <v>12755</v>
       </c>
-      <c r="R19" s="32">
+      <c r="R19" s="31">
         <v>10897</v>
       </c>
-      <c r="S19" s="29">
+      <c r="S19" s="28">
         <v>3418</v>
       </c>
-      <c r="T19" s="30">
+      <c r="T19" s="29">
         <v>42925</v>
       </c>
-      <c r="U19" s="31">
+      <c r="U19" s="30">
         <v>6211</v>
       </c>
-      <c r="V19" s="32">
+      <c r="V19" s="31">
         <v>5230</v>
       </c>
-      <c r="W19" s="32">
+      <c r="W19" s="31">
         <v>11616</v>
       </c>
-      <c r="X19" s="33">
+      <c r="X19" s="32">
         <v>13497</v>
       </c>
-      <c r="Y19" s="30">
+      <c r="Y19" s="29">
         <v>36554</v>
       </c>
-      <c r="Z19" s="36">
+      <c r="Z19" s="35">
         <v>147983</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="37">
+      <c r="B20" s="80"/>
+      <c r="C20" s="36">
         <v>8862</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="39">
         <v>4905</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="40">
         <v>25157</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="39">
         <v>10963</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="39">
         <v>49887</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="39">
         <v>10885</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="39">
         <v>12664</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="38">
         <v>15038</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="40">
         <v>38587</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="39">
         <v>17189</v>
       </c>
-      <c r="M20" s="40">
+      <c r="M20" s="39">
         <v>25433</v>
       </c>
-      <c r="N20" s="40">
+      <c r="N20" s="39">
         <v>42622</v>
       </c>
-      <c r="O20" s="39">
+      <c r="O20" s="38">
         <v>13212</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="39">
         <v>16884</v>
       </c>
-      <c r="Q20" s="41">
+      <c r="Q20" s="40">
         <v>23622</v>
       </c>
-      <c r="R20" s="40">
+      <c r="R20" s="39">
         <v>21807</v>
       </c>
-      <c r="S20" s="40">
+      <c r="S20" s="39">
         <v>6004</v>
       </c>
-      <c r="T20" s="40">
+      <c r="T20" s="39">
         <v>81529</v>
       </c>
-      <c r="U20" s="40">
+      <c r="U20" s="39">
         <v>11248</v>
       </c>
-      <c r="V20" s="40">
+      <c r="V20" s="39">
         <v>9754</v>
       </c>
-      <c r="W20" s="40">
+      <c r="W20" s="39">
         <v>21891</v>
       </c>
-      <c r="X20" s="39">
+      <c r="X20" s="38">
         <v>25172</v>
       </c>
-      <c r="Y20" s="42">
+      <c r="Y20" s="41">
         <v>68065</v>
       </c>
-      <c r="Z20" s="43">
+      <c r="Z20" s="42">
         <v>280690</v>
       </c>
     </row>
@@ -3071,79 +3061,79 @@
       <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>4670</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>2556</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <v>13498</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="17">
         <v>6547</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="18">
         <v>27271</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>5259</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="19">
         <v>6877</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="20">
         <v>7630</v>
       </c>
-      <c r="K21" s="44">
+      <c r="K21" s="43">
         <v>19766</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="14">
         <v>10787</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="17">
         <v>14373</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N21" s="18">
         <v>25160</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="22">
         <v>6774</v>
       </c>
-      <c r="P21" s="20">
+      <c r="P21" s="19">
         <v>10477</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="16">
         <v>13628</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="19">
         <v>11220</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21" s="17">
         <v>3396</v>
       </c>
-      <c r="T21" s="19">
+      <c r="T21" s="18">
         <v>45495</v>
       </c>
-      <c r="U21" s="15">
+      <c r="U21" s="14">
         <v>7338</v>
       </c>
-      <c r="V21" s="20">
+      <c r="V21" s="19">
         <v>6109</v>
       </c>
-      <c r="W21" s="20">
+      <c r="W21" s="19">
         <v>11646</v>
       </c>
-      <c r="X21" s="21">
+      <c r="X21" s="20">
         <v>14111</v>
       </c>
-      <c r="Y21" s="19">
+      <c r="Y21" s="18">
         <v>39204</v>
       </c>
-      <c r="Z21" s="24">
+      <c r="Z21" s="23">
         <v>156896</v>
       </c>
     </row>
@@ -3151,157 +3141,157 @@
       <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="30">
         <v>5278</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="31">
         <v>2834</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="27">
         <v>15636</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="28">
         <v>7372</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="29">
         <v>31120</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="30">
         <v>5417</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="31">
         <v>7545</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="32">
         <v>8349</v>
       </c>
-      <c r="K22" s="45">
+      <c r="K22" s="44">
         <v>21311</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="30">
         <v>11950</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="28">
         <v>15785</v>
       </c>
-      <c r="N22" s="30">
+      <c r="N22" s="29">
         <v>27735</v>
       </c>
-      <c r="O22" s="35">
+      <c r="O22" s="34">
         <v>7814</v>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="31">
         <v>12997</v>
       </c>
-      <c r="Q22" s="28">
+      <c r="Q22" s="27">
         <v>16040</v>
       </c>
-      <c r="R22" s="32">
+      <c r="R22" s="31">
         <v>12224</v>
       </c>
-      <c r="S22" s="29">
+      <c r="S22" s="28">
         <v>3858</v>
       </c>
-      <c r="T22" s="30">
+      <c r="T22" s="29">
         <v>52933</v>
       </c>
-      <c r="U22" s="31">
+      <c r="U22" s="30">
         <v>8996</v>
       </c>
-      <c r="V22" s="32">
+      <c r="V22" s="31">
         <v>8278</v>
       </c>
-      <c r="W22" s="32">
+      <c r="W22" s="31">
         <v>12954</v>
       </c>
-      <c r="X22" s="33">
+      <c r="X22" s="32">
         <v>17131</v>
       </c>
-      <c r="Y22" s="30">
+      <c r="Y22" s="29">
         <v>47359</v>
       </c>
-      <c r="Z22" s="36">
+      <c r="Z22" s="35">
         <v>180458</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="37">
+      <c r="B23" s="80"/>
+      <c r="C23" s="36">
         <v>9948</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="39">
         <v>5390</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="40">
         <v>29134</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="39">
         <v>13919</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="39">
         <v>58391</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="39">
         <v>10676</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="39">
         <v>14422</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="38">
         <v>15979</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="40">
         <v>41077</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23" s="39">
         <v>22737</v>
       </c>
-      <c r="M23" s="40">
+      <c r="M23" s="39">
         <v>30158</v>
       </c>
-      <c r="N23" s="40">
+      <c r="N23" s="39">
         <v>52895</v>
       </c>
-      <c r="O23" s="39">
+      <c r="O23" s="38">
         <v>14588</v>
       </c>
-      <c r="P23" s="40">
+      <c r="P23" s="39">
         <v>23474</v>
       </c>
-      <c r="Q23" s="41">
+      <c r="Q23" s="40">
         <v>29668</v>
       </c>
-      <c r="R23" s="40">
+      <c r="R23" s="39">
         <v>23444</v>
       </c>
-      <c r="S23" s="40">
+      <c r="S23" s="39">
         <v>7254</v>
       </c>
-      <c r="T23" s="40">
+      <c r="T23" s="39">
         <v>98428</v>
       </c>
-      <c r="U23" s="40">
+      <c r="U23" s="39">
         <v>16334</v>
       </c>
-      <c r="V23" s="40">
+      <c r="V23" s="39">
         <v>14387</v>
       </c>
-      <c r="W23" s="40">
+      <c r="W23" s="39">
         <v>24600</v>
       </c>
-      <c r="X23" s="39">
+      <c r="X23" s="38">
         <v>31242</v>
       </c>
-      <c r="Y23" s="42">
+      <c r="Y23" s="41">
         <v>86563</v>
       </c>
-      <c r="Z23" s="43">
+      <c r="Z23" s="42">
         <v>337354</v>
       </c>
     </row>
@@ -3309,79 +3299,79 @@
       <c r="A24" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>5850</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>2936</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="16">
         <v>17555</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="17">
         <v>8220</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="18">
         <v>34561</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <v>5620</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="19">
         <v>8788</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="20">
         <v>8913</v>
       </c>
-      <c r="K24" s="44">
+      <c r="K24" s="43">
         <v>23321</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="14">
         <v>14517</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="17">
         <v>17607</v>
       </c>
-      <c r="N24" s="19">
+      <c r="N24" s="18">
         <v>32124</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O24" s="22">
         <v>8435</v>
       </c>
-      <c r="P24" s="20">
+      <c r="P24" s="19">
         <v>15676</v>
       </c>
-      <c r="Q24" s="17">
+      <c r="Q24" s="16">
         <v>19106</v>
       </c>
-      <c r="R24" s="20">
+      <c r="R24" s="19">
         <v>14175</v>
       </c>
-      <c r="S24" s="18">
+      <c r="S24" s="17">
         <v>4145</v>
       </c>
-      <c r="T24" s="19">
+      <c r="T24" s="18">
         <v>61537</v>
       </c>
-      <c r="U24" s="15">
+      <c r="U24" s="14">
         <v>10700</v>
       </c>
-      <c r="V24" s="20">
+      <c r="V24" s="19">
         <v>10555</v>
       </c>
-      <c r="W24" s="20">
+      <c r="W24" s="19">
         <v>14214</v>
       </c>
-      <c r="X24" s="21">
+      <c r="X24" s="20">
         <v>20039</v>
       </c>
-      <c r="Y24" s="19">
+      <c r="Y24" s="18">
         <v>55508</v>
       </c>
-      <c r="Z24" s="24">
+      <c r="Z24" s="23">
         <v>207051</v>
       </c>
     </row>
@@ -3389,157 +3379,157 @@
       <c r="A25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="30">
         <v>6262</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <v>3288</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <v>19473</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="28">
         <v>8975</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="29">
         <v>37998</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="30">
         <v>5791</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="31">
         <v>9251</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="32">
         <v>9318</v>
       </c>
-      <c r="K25" s="45">
+      <c r="K25" s="44">
         <v>24360</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="30">
         <v>14834</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="28">
         <v>18292</v>
       </c>
-      <c r="N25" s="30">
+      <c r="N25" s="29">
         <v>33126</v>
       </c>
-      <c r="O25" s="35">
+      <c r="O25" s="34">
         <v>8425</v>
       </c>
-      <c r="P25" s="32">
+      <c r="P25" s="31">
         <v>17753</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q25" s="27">
         <v>18246</v>
       </c>
-      <c r="R25" s="32">
+      <c r="R25" s="31">
         <v>15049</v>
       </c>
-      <c r="S25" s="29">
+      <c r="S25" s="28">
         <v>4082</v>
       </c>
-      <c r="T25" s="30">
+      <c r="T25" s="29">
         <v>63555</v>
       </c>
-      <c r="U25" s="31">
+      <c r="U25" s="30">
         <v>11483</v>
       </c>
-      <c r="V25" s="32">
+      <c r="V25" s="31">
         <v>12438</v>
       </c>
-      <c r="W25" s="32">
+      <c r="W25" s="31">
         <v>14771</v>
       </c>
-      <c r="X25" s="33">
+      <c r="X25" s="32">
         <v>22834</v>
       </c>
-      <c r="Y25" s="30">
+      <c r="Y25" s="29">
         <v>61526</v>
       </c>
-      <c r="Z25" s="36">
+      <c r="Z25" s="35">
         <v>220565</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="37">
+      <c r="B26" s="80"/>
+      <c r="C26" s="36">
         <v>12112</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="39">
         <v>6224</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="40">
         <v>37028</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="39">
         <v>17195</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="39">
         <v>72559</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="39">
         <v>11411</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="39">
         <v>18039</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="38">
         <v>18231</v>
       </c>
-      <c r="K26" s="41">
+      <c r="K26" s="40">
         <v>47681</v>
       </c>
-      <c r="L26" s="40">
+      <c r="L26" s="39">
         <v>29351</v>
       </c>
-      <c r="M26" s="40">
+      <c r="M26" s="39">
         <v>35899</v>
       </c>
-      <c r="N26" s="40">
+      <c r="N26" s="39">
         <v>65250</v>
       </c>
-      <c r="O26" s="39">
+      <c r="O26" s="38">
         <v>16860</v>
       </c>
-      <c r="P26" s="40">
+      <c r="P26" s="39">
         <v>33429</v>
       </c>
-      <c r="Q26" s="41">
+      <c r="Q26" s="40">
         <v>37352</v>
       </c>
-      <c r="R26" s="40">
+      <c r="R26" s="39">
         <v>29224</v>
       </c>
-      <c r="S26" s="40">
+      <c r="S26" s="39">
         <v>8227</v>
       </c>
-      <c r="T26" s="40">
+      <c r="T26" s="39">
         <v>125092</v>
       </c>
-      <c r="U26" s="40">
+      <c r="U26" s="39">
         <v>22183</v>
       </c>
-      <c r="V26" s="40">
+      <c r="V26" s="39">
         <v>22993</v>
       </c>
-      <c r="W26" s="40">
+      <c r="W26" s="39">
         <v>28985</v>
       </c>
-      <c r="X26" s="39">
+      <c r="X26" s="38">
         <v>42873</v>
       </c>
-      <c r="Y26" s="42">
+      <c r="Y26" s="41">
         <v>117034</v>
       </c>
-      <c r="Z26" s="43">
+      <c r="Z26" s="42">
         <v>427616</v>
       </c>
     </row>
@@ -3547,79 +3537,79 @@
       <c r="A27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>5660</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <v>3027</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="16">
         <v>16608</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="17">
         <v>7694</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="18">
         <v>32989</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="14">
         <v>5249</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="19">
         <v>9014</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="20">
         <v>8155</v>
       </c>
-      <c r="K27" s="44">
+      <c r="K27" s="43">
         <v>22418</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="14">
         <v>12401</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="17">
         <v>15987</v>
       </c>
-      <c r="N27" s="19">
+      <c r="N27" s="18">
         <v>28388</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O27" s="22">
         <v>7060</v>
       </c>
-      <c r="P27" s="20">
+      <c r="P27" s="19">
         <v>15836</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q27" s="16">
         <v>16598</v>
       </c>
-      <c r="R27" s="20">
+      <c r="R27" s="19">
         <v>13469</v>
       </c>
-      <c r="S27" s="18">
+      <c r="S27" s="17">
         <v>3802</v>
       </c>
-      <c r="T27" s="19">
+      <c r="T27" s="18">
         <v>56765</v>
       </c>
-      <c r="U27" s="15">
+      <c r="U27" s="14">
         <v>10162</v>
       </c>
-      <c r="V27" s="20">
+      <c r="V27" s="19">
         <v>10705</v>
       </c>
-      <c r="W27" s="20">
+      <c r="W27" s="19">
         <v>12317</v>
       </c>
-      <c r="X27" s="21">
+      <c r="X27" s="20">
         <v>19969</v>
       </c>
-      <c r="Y27" s="19">
+      <c r="Y27" s="18">
         <v>53153</v>
       </c>
-      <c r="Z27" s="24">
+      <c r="Z27" s="23">
         <v>193713</v>
       </c>
     </row>
@@ -3627,157 +3617,157 @@
       <c r="A28" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="30">
         <v>5903</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="31">
         <v>3172</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="27">
         <v>17635</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="28">
         <v>8165</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="29">
         <v>34875</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="30">
         <v>5382</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="31">
         <v>9283</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="32">
         <v>8722</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="44">
         <v>23387</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="30">
         <v>12820</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M28" s="28">
         <v>17020</v>
       </c>
-      <c r="N28" s="30">
+      <c r="N28" s="29">
         <v>29840</v>
       </c>
-      <c r="O28" s="35">
+      <c r="O28" s="34">
         <v>7237</v>
       </c>
-      <c r="P28" s="32">
+      <c r="P28" s="31">
         <v>17205</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="Q28" s="27">
         <v>14462</v>
       </c>
-      <c r="R28" s="32">
+      <c r="R28" s="31">
         <v>14442</v>
       </c>
-      <c r="S28" s="29">
+      <c r="S28" s="28">
         <v>3406</v>
       </c>
-      <c r="T28" s="30">
+      <c r="T28" s="29">
         <v>56752</v>
       </c>
-      <c r="U28" s="31">
+      <c r="U28" s="30">
         <v>9652</v>
       </c>
-      <c r="V28" s="32">
+      <c r="V28" s="31">
         <v>11004</v>
       </c>
-      <c r="W28" s="32">
+      <c r="W28" s="31">
         <v>11614</v>
       </c>
-      <c r="X28" s="33">
+      <c r="X28" s="32">
         <v>21527</v>
       </c>
-      <c r="Y28" s="30">
+      <c r="Y28" s="29">
         <v>53797</v>
       </c>
-      <c r="Z28" s="36">
+      <c r="Z28" s="35">
         <v>198651</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="37">
+      <c r="B29" s="80"/>
+      <c r="C29" s="36">
         <v>11563</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="39">
         <v>6199</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="40">
         <v>34243</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="39">
         <v>15859</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="39">
         <v>67864</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="39">
         <v>10631</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="39">
         <v>18297</v>
       </c>
-      <c r="J29" s="39">
+      <c r="J29" s="38">
         <v>16877</v>
       </c>
-      <c r="K29" s="41">
+      <c r="K29" s="40">
         <v>45805</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L29" s="39">
         <v>25221</v>
       </c>
-      <c r="M29" s="40">
+      <c r="M29" s="39">
         <v>33007</v>
       </c>
-      <c r="N29" s="40">
+      <c r="N29" s="39">
         <v>58228</v>
       </c>
-      <c r="O29" s="39">
+      <c r="O29" s="38">
         <v>14297</v>
       </c>
-      <c r="P29" s="40">
+      <c r="P29" s="39">
         <v>33041</v>
       </c>
-      <c r="Q29" s="41">
+      <c r="Q29" s="40">
         <v>31060</v>
       </c>
-      <c r="R29" s="40">
+      <c r="R29" s="39">
         <v>27911</v>
       </c>
-      <c r="S29" s="40">
+      <c r="S29" s="39">
         <v>7208</v>
       </c>
-      <c r="T29" s="40">
+      <c r="T29" s="39">
         <v>113517</v>
       </c>
-      <c r="U29" s="40">
+      <c r="U29" s="39">
         <v>19814</v>
       </c>
-      <c r="V29" s="40">
+      <c r="V29" s="39">
         <v>21709</v>
       </c>
-      <c r="W29" s="40">
+      <c r="W29" s="39">
         <v>23931</v>
       </c>
-      <c r="X29" s="39">
+      <c r="X29" s="38">
         <v>41496</v>
       </c>
-      <c r="Y29" s="42">
+      <c r="Y29" s="41">
         <v>106950</v>
       </c>
-      <c r="Z29" s="43">
+      <c r="Z29" s="42">
         <v>392364</v>
       </c>
     </row>
@@ -3785,79 +3775,79 @@
       <c r="A30" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="14">
         <v>5047</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="19">
         <v>2940</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <v>14709</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="17">
         <v>6425</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="18">
         <v>29121</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <v>5008</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="19">
         <v>7742</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="20">
         <v>7419</v>
       </c>
-      <c r="K30" s="44">
+      <c r="K30" s="43">
         <v>20169</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="14">
         <v>9476</v>
       </c>
-      <c r="M30" s="18">
+      <c r="M30" s="17">
         <v>13791</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N30" s="18">
         <v>23267</v>
       </c>
-      <c r="O30" s="23">
+      <c r="O30" s="22">
         <v>5581</v>
       </c>
-      <c r="P30" s="20">
+      <c r="P30" s="19">
         <v>13406</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="16">
         <v>11204</v>
       </c>
-      <c r="R30" s="20">
+      <c r="R30" s="19">
         <v>11431</v>
       </c>
-      <c r="S30" s="18">
+      <c r="S30" s="17">
         <v>3009</v>
       </c>
-      <c r="T30" s="19">
+      <c r="T30" s="18">
         <v>44631</v>
       </c>
-      <c r="U30" s="15">
+      <c r="U30" s="14">
         <v>7277</v>
       </c>
-      <c r="V30" s="20">
+      <c r="V30" s="19">
         <v>7783</v>
       </c>
-      <c r="W30" s="20">
+      <c r="W30" s="19">
         <v>8728</v>
       </c>
-      <c r="X30" s="21">
+      <c r="X30" s="20">
         <v>16599</v>
       </c>
-      <c r="Y30" s="19">
+      <c r="Y30" s="18">
         <v>40387</v>
       </c>
-      <c r="Z30" s="24">
+      <c r="Z30" s="23">
         <v>157575</v>
       </c>
     </row>
@@ -3865,157 +3855,157 @@
       <c r="A31" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="30">
         <v>4903</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="31">
         <v>3053</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="27">
         <v>15485</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="28">
         <v>6490</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="29">
         <v>29931</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="30">
         <v>4929</v>
       </c>
-      <c r="I31" s="32">
+      <c r="I31" s="31">
         <v>7283</v>
       </c>
-      <c r="J31" s="33">
+      <c r="J31" s="32">
         <v>8126</v>
       </c>
-      <c r="K31" s="45">
+      <c r="K31" s="44">
         <v>20338</v>
       </c>
-      <c r="L31" s="31">
+      <c r="L31" s="30">
         <v>9812</v>
       </c>
-      <c r="M31" s="29">
+      <c r="M31" s="28">
         <v>15006</v>
       </c>
-      <c r="N31" s="30">
+      <c r="N31" s="29">
         <v>24818</v>
       </c>
-      <c r="O31" s="35">
+      <c r="O31" s="34">
         <v>5687</v>
       </c>
-      <c r="P31" s="32">
+      <c r="P31" s="31">
         <v>12765</v>
       </c>
-      <c r="Q31" s="28">
+      <c r="Q31" s="27">
         <v>9283</v>
       </c>
-      <c r="R31" s="32">
+      <c r="R31" s="31">
         <v>12185</v>
       </c>
-      <c r="S31" s="29">
+      <c r="S31" s="28">
         <v>2411</v>
       </c>
-      <c r="T31" s="30">
+      <c r="T31" s="29">
         <v>42331</v>
       </c>
-      <c r="U31" s="31">
+      <c r="U31" s="30">
         <v>5755</v>
       </c>
-      <c r="V31" s="32">
+      <c r="V31" s="31">
         <v>6751</v>
       </c>
-      <c r="W31" s="32">
+      <c r="W31" s="31">
         <v>8072</v>
       </c>
-      <c r="X31" s="33">
+      <c r="X31" s="32">
         <v>17033</v>
       </c>
-      <c r="Y31" s="30">
+      <c r="Y31" s="29">
         <v>37611</v>
       </c>
-      <c r="Z31" s="36">
+      <c r="Z31" s="35">
         <v>155029</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="81"/>
-      <c r="C32" s="37">
+      <c r="B32" s="80"/>
+      <c r="C32" s="36">
         <v>9950</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="39">
         <v>5993</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="40">
         <v>30194</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="39">
         <v>12915</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="39">
         <v>59052</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="39">
         <v>9937</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="39">
         <v>15025</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="38">
         <v>15545</v>
       </c>
-      <c r="K32" s="41">
+      <c r="K32" s="40">
         <v>40507</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="39">
         <v>19288</v>
       </c>
-      <c r="M32" s="40">
+      <c r="M32" s="39">
         <v>28797</v>
       </c>
-      <c r="N32" s="40">
+      <c r="N32" s="39">
         <v>48085</v>
       </c>
-      <c r="O32" s="39">
+      <c r="O32" s="38">
         <v>11268</v>
       </c>
-      <c r="P32" s="40">
+      <c r="P32" s="39">
         <v>26171</v>
       </c>
-      <c r="Q32" s="41">
+      <c r="Q32" s="40">
         <v>20487</v>
       </c>
-      <c r="R32" s="40">
+      <c r="R32" s="39">
         <v>23616</v>
       </c>
-      <c r="S32" s="40">
+      <c r="S32" s="39">
         <v>5420</v>
       </c>
-      <c r="T32" s="40">
+      <c r="T32" s="39">
         <v>86962</v>
       </c>
-      <c r="U32" s="40">
+      <c r="U32" s="39">
         <v>13032</v>
       </c>
-      <c r="V32" s="40">
+      <c r="V32" s="39">
         <v>14534</v>
       </c>
-      <c r="W32" s="40">
+      <c r="W32" s="39">
         <v>16800</v>
       </c>
-      <c r="X32" s="39">
+      <c r="X32" s="38">
         <v>33632</v>
       </c>
-      <c r="Y32" s="42">
+      <c r="Y32" s="41">
         <v>77998</v>
       </c>
-      <c r="Z32" s="43">
+      <c r="Z32" s="42">
         <v>312604</v>
       </c>
     </row>
@@ -4023,79 +4013,79 @@
       <c r="A33" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="14">
         <v>3289</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="19">
         <v>2079</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="16">
         <v>10231</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="17">
         <v>4256</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="18">
         <v>19855</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <v>3537</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="19">
         <v>5058</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="20">
         <v>5675</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33" s="43">
         <v>14270</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="14">
         <v>6628</v>
       </c>
-      <c r="M33" s="18">
+      <c r="M33" s="17">
         <v>10559</v>
       </c>
-      <c r="N33" s="19">
+      <c r="N33" s="18">
         <v>17187</v>
       </c>
-      <c r="O33" s="23">
+      <c r="O33" s="22">
         <v>4029</v>
       </c>
-      <c r="P33" s="20">
+      <c r="P33" s="19">
         <v>8062</v>
       </c>
-      <c r="Q33" s="17">
+      <c r="Q33" s="16">
         <v>6784</v>
       </c>
-      <c r="R33" s="20">
+      <c r="R33" s="19">
         <v>8710</v>
       </c>
-      <c r="S33" s="18">
+      <c r="S33" s="17">
         <v>1812</v>
       </c>
-      <c r="T33" s="19">
+      <c r="T33" s="18">
         <v>29397</v>
       </c>
-      <c r="U33" s="15">
+      <c r="U33" s="14">
         <v>3975</v>
       </c>
-      <c r="V33" s="20">
+      <c r="V33" s="19">
         <v>4268</v>
       </c>
-      <c r="W33" s="20">
+      <c r="W33" s="19">
         <v>5488</v>
       </c>
-      <c r="X33" s="21">
+      <c r="X33" s="20">
         <v>10707</v>
       </c>
-      <c r="Y33" s="19">
+      <c r="Y33" s="18">
         <v>24438</v>
       </c>
-      <c r="Z33" s="24">
+      <c r="Z33" s="23">
         <v>105147</v>
       </c>
     </row>
@@ -4103,395 +4093,395 @@
       <c r="A34" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="30">
         <v>3157</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="31">
         <v>2078</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="27">
         <v>10372</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="28">
         <v>4455</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="29">
         <v>20062</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="30">
         <v>3613</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="31">
         <v>5125</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J34" s="32">
         <v>6270</v>
       </c>
-      <c r="K34" s="45">
+      <c r="K34" s="44">
         <v>15008</v>
       </c>
-      <c r="L34" s="31">
+      <c r="L34" s="30">
         <v>7076</v>
       </c>
-      <c r="M34" s="29">
+      <c r="M34" s="28">
         <v>11249</v>
       </c>
-      <c r="N34" s="30">
+      <c r="N34" s="29">
         <v>18325</v>
       </c>
-      <c r="O34" s="35">
+      <c r="O34" s="34">
         <v>4137</v>
       </c>
-      <c r="P34" s="32">
+      <c r="P34" s="31">
         <v>6061</v>
       </c>
-      <c r="Q34" s="28">
+      <c r="Q34" s="27">
         <v>5105</v>
       </c>
-      <c r="R34" s="32">
+      <c r="R34" s="31">
         <v>9608</v>
       </c>
-      <c r="S34" s="29">
+      <c r="S34" s="28">
         <v>1420</v>
       </c>
-      <c r="T34" s="30">
+      <c r="T34" s="29">
         <v>26331</v>
       </c>
-      <c r="U34" s="31">
+      <c r="U34" s="30">
         <v>3049</v>
       </c>
-      <c r="V34" s="32">
+      <c r="V34" s="31">
         <v>3339</v>
       </c>
-      <c r="W34" s="32">
+      <c r="W34" s="31">
         <v>4975</v>
       </c>
-      <c r="X34" s="33">
+      <c r="X34" s="32">
         <v>9796</v>
       </c>
-      <c r="Y34" s="30">
+      <c r="Y34" s="29">
         <v>21159</v>
       </c>
-      <c r="Z34" s="36">
+      <c r="Z34" s="35">
         <v>100885</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="37">
+      <c r="B35" s="80"/>
+      <c r="C35" s="36">
         <v>6446</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="39">
         <v>4157</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="40">
         <v>20603</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="39">
         <v>8711</v>
       </c>
-      <c r="G35" s="40">
+      <c r="G35" s="39">
         <v>39917</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="39">
         <v>7150</v>
       </c>
-      <c r="I35" s="40">
+      <c r="I35" s="39">
         <v>10183</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J35" s="38">
         <v>11945</v>
       </c>
-      <c r="K35" s="41">
+      <c r="K35" s="40">
         <v>29278</v>
       </c>
-      <c r="L35" s="40">
+      <c r="L35" s="39">
         <v>13704</v>
       </c>
-      <c r="M35" s="40">
+      <c r="M35" s="39">
         <v>21808</v>
       </c>
-      <c r="N35" s="40">
+      <c r="N35" s="39">
         <v>35512</v>
       </c>
-      <c r="O35" s="39">
+      <c r="O35" s="38">
         <v>8166</v>
       </c>
-      <c r="P35" s="40">
+      <c r="P35" s="39">
         <v>14123</v>
       </c>
-      <c r="Q35" s="41">
+      <c r="Q35" s="40">
         <v>11889</v>
       </c>
-      <c r="R35" s="40">
+      <c r="R35" s="39">
         <v>18318</v>
       </c>
-      <c r="S35" s="40">
+      <c r="S35" s="39">
         <v>3232</v>
       </c>
-      <c r="T35" s="40">
+      <c r="T35" s="39">
         <v>55728</v>
       </c>
-      <c r="U35" s="40">
+      <c r="U35" s="39">
         <v>7024</v>
       </c>
-      <c r="V35" s="40">
+      <c r="V35" s="39">
         <v>7607</v>
       </c>
-      <c r="W35" s="40">
+      <c r="W35" s="39">
         <v>10463</v>
       </c>
-      <c r="X35" s="39">
+      <c r="X35" s="38">
         <v>20503</v>
       </c>
-      <c r="Y35" s="42">
+      <c r="Y35" s="41">
         <v>45597</v>
       </c>
-      <c r="Z35" s="43">
+      <c r="Z35" s="42">
         <v>206032</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="14">
         <v>6931</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="19">
         <v>4918</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="16">
         <v>22157</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="17">
         <v>9820</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="18">
         <v>43826</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="14">
         <v>8834</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="19">
         <v>14432</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="20">
         <v>14015</v>
       </c>
-      <c r="K36" s="44">
+      <c r="K36" s="43">
         <v>37281</v>
       </c>
-      <c r="L36" s="15">
+      <c r="L36" s="14">
         <v>18996</v>
       </c>
-      <c r="M36" s="18">
+      <c r="M36" s="17">
         <v>28667</v>
       </c>
-      <c r="N36" s="19">
+      <c r="N36" s="18">
         <v>47663</v>
       </c>
-      <c r="O36" s="23">
+      <c r="O36" s="22">
         <v>8304</v>
       </c>
-      <c r="P36" s="20">
+      <c r="P36" s="19">
         <v>11793</v>
       </c>
-      <c r="Q36" s="17">
+      <c r="Q36" s="16">
         <v>12074</v>
       </c>
-      <c r="R36" s="20">
+      <c r="R36" s="19">
         <v>19550</v>
       </c>
-      <c r="S36" s="18">
+      <c r="S36" s="17">
         <v>3298</v>
       </c>
-      <c r="T36" s="19">
+      <c r="T36" s="18">
         <v>55019</v>
       </c>
-      <c r="U36" s="15">
+      <c r="U36" s="14">
         <v>7614</v>
       </c>
-      <c r="V36" s="20">
+      <c r="V36" s="19">
         <v>7242</v>
       </c>
-      <c r="W36" s="20">
+      <c r="W36" s="19">
         <v>9275</v>
       </c>
-      <c r="X36" s="21">
+      <c r="X36" s="20">
         <v>18547</v>
       </c>
-      <c r="Y36" s="19">
+      <c r="Y36" s="18">
         <v>42678</v>
       </c>
-      <c r="Z36" s="24">
+      <c r="Z36" s="23">
         <v>226467</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="30">
         <v>7011</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="31">
         <v>5189</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="27">
         <v>24737</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="28">
         <v>11022</v>
       </c>
-      <c r="G37" s="30">
+      <c r="G37" s="29">
         <v>47959</v>
       </c>
-      <c r="H37" s="31">
+      <c r="H37" s="30">
         <v>8640</v>
       </c>
-      <c r="I37" s="32">
+      <c r="I37" s="31">
         <v>15021</v>
       </c>
-      <c r="J37" s="33">
+      <c r="J37" s="32">
         <v>15076</v>
       </c>
-      <c r="K37" s="45">
+      <c r="K37" s="44">
         <v>38737</v>
       </c>
-      <c r="L37" s="31">
+      <c r="L37" s="30">
         <v>24020</v>
       </c>
-      <c r="M37" s="29">
+      <c r="M37" s="28">
         <v>29654</v>
       </c>
-      <c r="N37" s="30">
+      <c r="N37" s="29">
         <v>53674</v>
       </c>
-      <c r="O37" s="35">
+      <c r="O37" s="34">
         <v>7967</v>
       </c>
-      <c r="P37" s="32">
+      <c r="P37" s="31">
         <v>10568</v>
       </c>
-      <c r="Q37" s="28">
+      <c r="Q37" s="27">
         <v>11448</v>
       </c>
-      <c r="R37" s="32">
+      <c r="R37" s="31">
         <v>18836</v>
       </c>
-      <c r="S37" s="29">
+      <c r="S37" s="28">
         <v>3289</v>
       </c>
-      <c r="T37" s="30">
+      <c r="T37" s="29">
         <v>52108</v>
       </c>
-      <c r="U37" s="31">
+      <c r="U37" s="30">
         <v>8313</v>
       </c>
-      <c r="V37" s="32">
+      <c r="V37" s="31">
         <v>7700</v>
       </c>
-      <c r="W37" s="32">
+      <c r="W37" s="31">
         <v>9640</v>
       </c>
-      <c r="X37" s="33">
+      <c r="X37" s="32">
         <v>18255</v>
       </c>
-      <c r="Y37" s="30">
+      <c r="Y37" s="29">
         <v>43908</v>
       </c>
-      <c r="Z37" s="36">
+      <c r="Z37" s="35">
         <v>236386</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="83"/>
-      <c r="C38" s="37">
+      <c r="B38" s="82"/>
+      <c r="C38" s="36">
         <v>13942</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D38" s="39">
         <v>10107</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="40">
         <v>46894</v>
       </c>
-      <c r="F38" s="40">
+      <c r="F38" s="39">
         <v>20842</v>
       </c>
-      <c r="G38" s="40">
+      <c r="G38" s="39">
         <v>91785</v>
       </c>
-      <c r="H38" s="40">
+      <c r="H38" s="39">
         <v>17474</v>
       </c>
-      <c r="I38" s="40">
+      <c r="I38" s="39">
         <v>29453</v>
       </c>
-      <c r="J38" s="39">
+      <c r="J38" s="38">
         <v>29091</v>
       </c>
-      <c r="K38" s="41">
+      <c r="K38" s="40">
         <v>76018</v>
       </c>
-      <c r="L38" s="40">
+      <c r="L38" s="39">
         <v>43016</v>
       </c>
-      <c r="M38" s="40">
+      <c r="M38" s="39">
         <v>58321</v>
       </c>
-      <c r="N38" s="40">
+      <c r="N38" s="39">
         <v>101337</v>
       </c>
-      <c r="O38" s="39">
+      <c r="O38" s="38">
         <v>16271</v>
       </c>
-      <c r="P38" s="40">
+      <c r="P38" s="39">
         <v>22361</v>
       </c>
-      <c r="Q38" s="41">
+      <c r="Q38" s="40">
         <v>23522</v>
       </c>
-      <c r="R38" s="40">
+      <c r="R38" s="39">
         <v>38386</v>
       </c>
-      <c r="S38" s="40">
+      <c r="S38" s="39">
         <v>6587</v>
       </c>
-      <c r="T38" s="40">
+      <c r="T38" s="39">
         <v>107127</v>
       </c>
-      <c r="U38" s="40">
+      <c r="U38" s="39">
         <v>15927</v>
       </c>
-      <c r="V38" s="40">
+      <c r="V38" s="39">
         <v>14942</v>
       </c>
-      <c r="W38" s="40">
+      <c r="W38" s="39">
         <v>18915</v>
       </c>
-      <c r="X38" s="39">
+      <c r="X38" s="38">
         <v>36802</v>
       </c>
-      <c r="Y38" s="42">
+      <c r="Y38" s="41">
         <v>86586</v>
       </c>
-      <c r="Z38" s="43">
+      <c r="Z38" s="42">
         <v>462853</v>
       </c>
     </row>
@@ -4499,235 +4489,237 @@
       <c r="A39" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="47">
+      <c r="C39" s="46">
         <v>49192</v>
       </c>
-      <c r="D39" s="48">
+      <c r="D39" s="47">
         <v>27271</v>
       </c>
-      <c r="E39" s="49">
+      <c r="E39" s="48">
         <v>148498</v>
       </c>
-      <c r="F39" s="50">
+      <c r="F39" s="49">
         <v>67103</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="18">
         <v>292064</v>
       </c>
-      <c r="H39" s="47">
+      <c r="H39" s="46">
         <v>55927</v>
       </c>
-      <c r="I39" s="48">
+      <c r="I39" s="47">
         <v>82211</v>
       </c>
-      <c r="J39" s="51">
+      <c r="J39" s="50">
         <v>82505</v>
       </c>
-      <c r="K39" s="44">
+      <c r="K39" s="43">
         <v>220643</v>
       </c>
-      <c r="L39" s="47">
+      <c r="L39" s="46">
         <v>114830</v>
       </c>
-      <c r="M39" s="50">
+      <c r="M39" s="49">
         <v>162482</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N39" s="18">
         <v>277312</v>
       </c>
-      <c r="O39" s="52">
+      <c r="O39" s="51">
         <v>68311</v>
       </c>
-      <c r="P39" s="48">
+      <c r="P39" s="47">
         <v>129094</v>
       </c>
-      <c r="Q39" s="49">
+      <c r="Q39" s="48">
         <v>141632</v>
       </c>
-      <c r="R39" s="48">
+      <c r="R39" s="47">
         <v>131403</v>
       </c>
-      <c r="S39" s="50">
+      <c r="S39" s="49">
         <v>31631</v>
       </c>
-      <c r="T39" s="19">
+      <c r="T39" s="18">
         <v>502071</v>
       </c>
-      <c r="U39" s="47">
+      <c r="U39" s="46">
         <v>80925</v>
       </c>
-      <c r="V39" s="48">
+      <c r="V39" s="47">
         <v>80116</v>
       </c>
-      <c r="W39" s="48">
+      <c r="W39" s="47">
         <v>108283</v>
       </c>
-      <c r="X39" s="53">
+      <c r="X39" s="52">
         <v>170772</v>
       </c>
-      <c r="Y39" s="19">
+      <c r="Y39" s="18">
         <v>440096</v>
       </c>
-      <c r="Z39" s="54">
+      <c r="Z39" s="53">
         <v>1732186</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="13"/>
-      <c r="B40" s="25" t="s">
+      <c r="A40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="55">
+      <c r="C40" s="54">
         <v>51264</v>
       </c>
-      <c r="D40" s="56">
+      <c r="D40" s="55">
         <v>28987</v>
       </c>
-      <c r="E40" s="57">
+      <c r="E40" s="56">
         <v>158538</v>
       </c>
-      <c r="F40" s="58">
+      <c r="F40" s="57">
         <v>71269</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="29">
         <v>310058</v>
       </c>
-      <c r="H40" s="55">
+      <c r="H40" s="54">
         <v>55599</v>
       </c>
-      <c r="I40" s="56">
+      <c r="I40" s="55">
         <v>83932</v>
       </c>
-      <c r="J40" s="59">
+      <c r="J40" s="58">
         <v>86832</v>
       </c>
-      <c r="K40" s="45">
+      <c r="K40" s="44">
         <v>226363</v>
       </c>
-      <c r="L40" s="55">
+      <c r="L40" s="54">
         <v>122288</v>
       </c>
-      <c r="M40" s="58">
+      <c r="M40" s="57">
         <v>166677</v>
       </c>
-      <c r="N40" s="30">
+      <c r="N40" s="29">
         <v>288965</v>
       </c>
-      <c r="O40" s="60">
+      <c r="O40" s="59">
         <v>69736</v>
       </c>
-      <c r="P40" s="56">
+      <c r="P40" s="55">
         <v>128809</v>
       </c>
-      <c r="Q40" s="57">
+      <c r="Q40" s="56">
         <v>136230</v>
       </c>
-      <c r="R40" s="56">
+      <c r="R40" s="55">
         <v>133445</v>
       </c>
-      <c r="S40" s="58">
+      <c r="S40" s="57">
         <v>31361</v>
       </c>
-      <c r="T40" s="30">
+      <c r="T40" s="29">
         <v>499581</v>
       </c>
-      <c r="U40" s="55">
+      <c r="U40" s="54">
         <v>81076</v>
       </c>
-      <c r="V40" s="56">
+      <c r="V40" s="55">
         <v>82302</v>
       </c>
-      <c r="W40" s="56">
+      <c r="W40" s="55">
         <v>110055</v>
       </c>
-      <c r="X40" s="61">
+      <c r="X40" s="60">
         <v>177200</v>
       </c>
-      <c r="Y40" s="30">
+      <c r="Y40" s="29">
         <v>450633</v>
       </c>
-      <c r="Z40" s="62">
+      <c r="Z40" s="61">
         <v>1775600</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="63">
+      <c r="B41" s="78"/>
+      <c r="C41" s="62">
         <v>100456</v>
       </c>
-      <c r="D41" s="64">
+      <c r="D41" s="63">
         <v>56258</v>
       </c>
-      <c r="E41" s="65">
+      <c r="E41" s="64">
         <v>307036</v>
       </c>
-      <c r="F41" s="66">
+      <c r="F41" s="65">
         <v>138372</v>
       </c>
-      <c r="G41" s="67">
+      <c r="G41" s="66">
         <v>602122</v>
       </c>
-      <c r="H41" s="68">
+      <c r="H41" s="67">
         <v>111526</v>
       </c>
-      <c r="I41" s="69">
+      <c r="I41" s="68">
         <v>166143</v>
       </c>
-      <c r="J41" s="70">
+      <c r="J41" s="69">
         <v>169337</v>
       </c>
-      <c r="K41" s="71">
+      <c r="K41" s="70">
         <v>447006</v>
       </c>
-      <c r="L41" s="63">
+      <c r="L41" s="62">
         <v>237118</v>
       </c>
-      <c r="M41" s="66">
+      <c r="M41" s="65">
         <v>329159</v>
       </c>
-      <c r="N41" s="67">
+      <c r="N41" s="66">
         <v>566277</v>
       </c>
-      <c r="O41" s="72">
+      <c r="O41" s="71">
         <v>138047</v>
       </c>
-      <c r="P41" s="69">
+      <c r="P41" s="68">
         <v>257903</v>
       </c>
-      <c r="Q41" s="73">
+      <c r="Q41" s="72">
         <v>277862</v>
       </c>
-      <c r="R41" s="69">
+      <c r="R41" s="68">
         <v>264848</v>
       </c>
-      <c r="S41" s="74">
+      <c r="S41" s="73">
         <v>62992</v>
       </c>
-      <c r="T41" s="75">
+      <c r="T41" s="74">
         <v>1001652</v>
       </c>
-      <c r="U41" s="63">
+      <c r="U41" s="62">
         <v>162001</v>
       </c>
-      <c r="V41" s="64">
+      <c r="V41" s="63">
         <v>162418</v>
       </c>
-      <c r="W41" s="64">
+      <c r="W41" s="63">
         <v>218338</v>
       </c>
-      <c r="X41" s="76">
+      <c r="X41" s="75">
         <v>347972</v>
       </c>
-      <c r="Y41" s="67">
+      <c r="Y41" s="66">
         <v>890729</v>
       </c>
-      <c r="Z41" s="77">
+      <c r="Z41" s="76">
         <v>3507786</v>
       </c>
     </row>
